--- a/data/expt_2/raw_transcripts/game78.xlsx
+++ b/data/expt_2/raw_transcripts/game78.xlsx
@@ -1,46 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MVI_0096.MP4.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="MVI_0096.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="138">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="139">
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, now you're on camera.</t>
   </si>
   <si>
-    <t>R</t>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve"> If you ever want to leave the game room, just let me know, okay?</t>
@@ -52,19 +61,19 @@
     <t xml:space="preserve"> But before that, we're going to practice touching our iPads and playing a game with popping bubbles.</t>
   </si>
   <si>
-    <t>So you can just tap the blue button on your screen and pop all the bubbles that you see.</t>
-  </si>
-  <si>
-    <t>You can pop those ones too, [id143]</t>
-  </si>
-  <si>
-    <t>And that's our friend Smurphy.</t>
+    <t xml:space="preserve">So you can just tap the blue button on your screen and pop all the bubbles that you see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can pop those ones too, [id143]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And that's our friend Smurphy.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now I'm just going to hold these here.</t>
   </si>
   <si>
-    <t>So today we're going to be playing a matching game.</t>
+    <t xml:space="preserve">So today we're going to be playing a matching game.</t>
   </si>
   <si>
     <t xml:space="preserve"> In the matching game, it's our job to help our friend Smurphy.</t>
@@ -73,22 +82,22 @@
     <t xml:space="preserve"> This is Smurphy, do you want to say hi?</t>
   </si>
   <si>
-    <t>Hi.</t>
-  </si>
-  <si>
-    <t>id143</t>
-  </si>
-  <si>
-    <t>He says hi back.</t>
-  </si>
-  <si>
-    <t>Great.</t>
+    <t xml:space="preserve">Hi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He says hi back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, on your screens, you're each going to see two pictures, but for one of you, a picture</t>
   </si>
   <si>
-    <t>will be inside of a black box.</t>
+    <t xml:space="preserve">will be inside of a black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> It's Smurphy's job to guess which picture is inside of the black box, and he needs your help.</t>
@@ -97,25 +106,25 @@
     <t xml:space="preserve"> Now, if you have the black box on your screen, you are the teller.</t>
   </si>
   <si>
-    <t>So that means it is your job to tell Smurphy what you see inside of the black box.</t>
+    <t xml:space="preserve">So that means it is your job to tell Smurphy what you see inside of the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, if you don't have the black box, you are the guesser.</t>
   </si>
   <si>
-    <t>It is your job to help Smurphy guess.</t>
+    <t xml:space="preserve">It is your job to help Smurphy guess.</t>
   </si>
   <si>
     <t xml:space="preserve"> When you think you know what the teller is telling you, you're going to tap the picture that</t>
   </si>
   <si>
-    <t>you think it is.</t>
+    <t xml:space="preserve">you think it is.</t>
   </si>
   <si>
     <t xml:space="preserve"> So if the teller tells you there's a banana in the black box, then you will tap it on the screen.</t>
   </si>
   <si>
-    <t>Alright?</t>
+    <t xml:space="preserve">Alright?</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, if you get it right, you will get a smiley face and you'll hear a yay sound, but if you</t>
@@ -124,22 +133,22 @@
     <t xml:space="preserve"> get it wrong, you'll get a sad face.</t>
   </si>
   <si>
-    <t>But that's okay because you have a lot of turns to help Smurphy guess.</t>
-  </si>
-  <si>
-    <t>Okay?</t>
-  </si>
-  <si>
-    <t>Now we're going to take turns helping Smurphy guess.</t>
+    <t xml:space="preserve">But that's okay because you have a lot of turns to help Smurphy guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now we're going to take turns helping Smurphy guess.</t>
   </si>
   <si>
     <t xml:space="preserve"> So remember, if you have the black box, what are you?</t>
   </si>
   <si>
-    <t>The sneaker</t>
-  </si>
-  <si>
-    <t>id144</t>
+    <t xml:space="preserve">The sneaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id144</t>
   </si>
   <si>
     <t xml:space="preserve"> If you have the black box, you're the teller.</t>
@@ -148,64 +157,64 @@
     <t xml:space="preserve"> And then if you don't have the black box, then you're...</t>
   </si>
   <si>
-    <t>The guesser.</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t>Okay.</t>
+    <t xml:space="preserve">The guesser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, all right, now you guys are ready to play.</t>
   </si>
   <si>
-    <t>So you can tap the blue button to begin.</t>
+    <t xml:space="preserve">So you can tap the blue button to begin.</t>
   </si>
   <si>
     <t xml:space="preserve"> All right, now who has the black box?</t>
   </si>
   <si>
-    <t>You do.</t>
+    <t xml:space="preserve">You do.</t>
   </si>
   <si>
     <t xml:space="preserve"> So you're going to tell [id143] what you see inside the black box, [id144]</t>
   </si>
   <si>
-    <t>And then you can hold Smurphy to help him guess.</t>
-  </si>
-  <si>
-    <t>I see an apple.</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>An apple</t>
+    <t xml:space="preserve">And then you can hold Smurphy to help him guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see an apple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An apple</t>
   </si>
   <si>
     <t xml:space="preserve"> Did you hear that, [id143]?</t>
   </si>
   <si>
-    <t>What?</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Do you want to say that a little louder for [id143]'s in here?</t>
-  </si>
-  <si>
-    <t>You do want to touch again?</t>
-  </si>
-  <si>
-    <t>Just a little softer.</t>
+    <t xml:space="preserve">What?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to say that a little louder for [id143]'s in here?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You do want to touch again?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just a little softer.</t>
   </si>
   <si>
     <t xml:space="preserve"> Great job, you guessed right.</t>
   </si>
   <si>
-    <t>I got a smiley</t>
+    <t xml:space="preserve">I got a smiley</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're going to wait for [id143] to tell you what they see in the black box and then you can guess.</t>
@@ -214,127 +223,130 @@
     <t xml:space="preserve"> So what do you see in the black box, [id143]?</t>
   </si>
   <si>
-    <t>A bird.</t>
-  </si>
-  <si>
-    <t>A bird</t>
-  </si>
-  <si>
-    <t>Guard</t>
+    <t xml:space="preserve">A bird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guard</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh wait, do you want to say that again?</t>
   </si>
   <si>
-    <t>Did you hear that?</t>
+    <t xml:space="preserve">Did you hear that?</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, this</t>
   </si>
   <si>
-    <t>Mm-hmm.</t>
-  </si>
-  <si>
-    <t>So do you want to tap?</t>
-  </si>
-  <si>
-    <t>Just tap again.</t>
+    <t xml:space="preserve">Mm-hmm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So do you want to tap?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just tap again.</t>
   </si>
   <si>
     <t xml:space="preserve"> Nice job, you guessed right.</t>
   </si>
   <si>
-    <t>Smurphy's so happy.</t>
-  </si>
-  <si>
-    <t>So do you want to tell [id143] what you see in the black box?</t>
-  </si>
-  <si>
-    <t>A boat.</t>
-  </si>
-  <si>
-    <t>A boat</t>
-  </si>
-  <si>
-    <t>Great job.</t>
-  </si>
-  <si>
-    <t>I found a boat.</t>
-  </si>
-  <si>
-    <t>Nice.</t>
+    <t xml:space="preserve">Smurphy's so happy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So do you want to tell [id143] what you see in the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found a boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, [id143], do you want to say what you see in the black box?</t>
   </si>
   <si>
-    <t>A tree.</t>
-  </si>
-  <si>
-    <t>A tree</t>
-  </si>
-  <si>
-    <t>Do you want to tell [id143] what you see the black box [id144]?</t>
-  </si>
-  <si>
-    <t>I don't know what's in it</t>
+    <t xml:space="preserve">A tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to tell [id143] what you see the black box [id144]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know what's in it</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, you can try your best to tell [id143] to help Smurphy guess.</t>
   </si>
   <si>
-    <t>I don't know what's that</t>
+    <t xml:space="preserve">I don't know what's that</t>
   </si>
   <si>
     <t xml:space="preserve"> Just try your best, just try to say anything that can help Smurphy guess.</t>
   </si>
   <si>
-    <t>Maybe a boat?</t>
-  </si>
-  <si>
-    <t>A person</t>
-  </si>
-  <si>
-    <t>Nice job.</t>
-  </si>
-  <si>
-    <t>There's a person.</t>
-  </si>
-  <si>
-    <t>Did you hear what [id144] said?</t>
-  </si>
-  <si>
-    <t>Do you want to say that again a little louder?</t>
-  </si>
-  <si>
-    <t>Person.</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Smurphy's so happy. Great job guys.</t>
-  </si>
-  <si>
-    <t>There's a person another portion.</t>
-  </si>
-  <si>
-    <t>Do you hear what [id144] said?</t>
-  </si>
-  <si>
-    <t>Did you want to say a little bit louder for [id143]?</t>
-  </si>
-  <si>
-    <t>Another person</t>
+    <t xml:space="preserve">Maybe a boat?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you hear what [id144] said?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to say that again a little louder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy's so happy. Great job guys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a person another portion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person, another person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you hear what [id144] said?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you want to say a little bit louder for [id143]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another person</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, okay, that was wrong, but you can try again.</t>
   </si>
   <si>
-    <t>The next time.</t>
-  </si>
-  <si>
-    <t>Do you want to say you see the...</t>
+    <t xml:space="preserve">The next time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to say you see the...</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, let's wait for [id143] to tell us what they see in the black box.</t>
@@ -343,10 +355,10 @@
     <t xml:space="preserve"> Um,</t>
   </si>
   <si>
-    <t>a person</t>
-  </si>
-  <si>
-    <t>It's okay.</t>
+    <t xml:space="preserve">a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's okay.</t>
   </si>
   <si>
     <t xml:space="preserve"> Do you want to say what you see in the black box, [id144]?</t>
@@ -355,31 +367,31 @@
     <t xml:space="preserve"> Great job, guys. Smurphy's so happy.</t>
   </si>
   <si>
-    <t>Oh.</t>
-  </si>
-  <si>
-    <t>Airplane.</t>
-  </si>
-  <si>
-    <t>Airplane</t>
-  </si>
-  <si>
-    <t>Do you want to say what you see in the black box?</t>
+    <t xml:space="preserve">Oh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airplane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to say what you see in the black box?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, that's okay.</t>
   </si>
   <si>
-    <t>You guys can try again next time.</t>
-  </si>
-  <si>
-    <t>Do you want to say what you see the black box [id144]?</t>
+    <t xml:space="preserve">You guys can try again next time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to say what you see the black box [id144]?</t>
   </si>
   <si>
     <t xml:space="preserve">No. </t>
   </si>
   <si>
-    <t>Do you want to say a little loud again?</t>
+    <t xml:space="preserve">Do you want to say a little loud again?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, tap it again.</t>
@@ -388,10 +400,10 @@
     <t xml:space="preserve"> Nice job, guys. Smurphy's so happy.</t>
   </si>
   <si>
-    <t>I see a airplane.</t>
-  </si>
-  <si>
-    <t>An airplane</t>
+    <t xml:space="preserve">I see a airplane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An airplane</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, it's okay, it's okay. You can try again.</t>
@@ -403,49 +415,66 @@
     <t xml:space="preserve"> Wow, you guys finished my game.</t>
   </si>
   <si>
-    <t>Thank you so much.</t>
-  </si>
-  <si>
-    <t>Smurphy says thank you.</t>
-  </si>
-  <si>
-    <t>Aw.</t>
-  </si>
-  <si>
-    <t>Thank you guys so much.</t>
-  </si>
-  <si>
-    <t>Smurphy really appreciates it.</t>
-  </si>
-  <si>
-    <t>All right.</t>
-  </si>
-  <si>
-    <t>You guys can go out to</t>
-  </si>
-  <si>
-    <t>the game room now I'm going to stop the video and we can put her name text back on</t>
+    <t xml:space="preserve">Thank you so much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy says thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aw.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you guys so much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy really appreciates it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You guys can go out to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the game room now I'm going to stop the video and we can put her name text back on</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -453,38 +482,70 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,94 +556,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -590,33 +647,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -629,13 +677,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -645,15 +687,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -661,7 +701,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -669,11 +708,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -682,26 +721,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F148" activeCellId="0" sqref="F148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="51.25"/>
-    <col customWidth="1" min="5" max="5" width="7.25"/>
-    <col customWidth="1" min="6" max="6" width="14.25"/>
-    <col customWidth="1" min="7" max="7" width="14.0"/>
-    <col customWidth="1" min="8" max="8" width="41.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="41.38"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,12 +768,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3000.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -741,12 +782,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6000.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>6000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -755,12 +796,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>6000.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>11000.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>11000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -769,12 +810,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>11000.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>16000.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>11000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>16000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -783,12 +824,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>16000.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20000.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>16000</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>20000</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -797,12 +838,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>20000.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>27000.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>27000</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -811,12 +852,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>27000.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>34000.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>27000</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>34000</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -825,12 +866,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>34000.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>37000.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>34000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>37000</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -839,12 +880,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>37000.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>41000.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>37000</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>41000</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -853,12 +894,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>41000.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44000.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>41000</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -867,12 +908,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>44000.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>46000.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>46000</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -881,12 +922,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>46000.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>47000.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>47000</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -895,12 +936,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>47000.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>49000.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>47000</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>49000</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -909,12 +950,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>49000.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>50000.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>49000</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>50000</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -923,12 +964,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>56280.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>56280</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -937,12 +978,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>56280.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>58680.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>56280</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>58680</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -951,12 +992,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>58680.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>64020.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>58680</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>64020</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -965,12 +1006,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>64020.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>68860.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>64020</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>68860</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -979,12 +1020,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>68860.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>74280.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>68860</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>74280</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -993,12 +1034,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>74280.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>78560.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>74280</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>78560</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
@@ -1007,12 +1048,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>78560.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>81000.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>78560</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>81000</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -1021,12 +1062,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>81000.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>85680.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>81000</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>85680</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -1035,12 +1076,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>85680.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>87080.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>85680</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>87080</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -1049,12 +1090,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>87080.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>93240.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>87080</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>93240</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
@@ -1063,12 +1104,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>93240.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>94240.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>93240</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>94240</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
@@ -1077,12 +1118,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>94240.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>101000.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>94240</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>101000</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
@@ -1091,12 +1132,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>101000.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>103540.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>101000</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>103540</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>36</v>
@@ -1105,12 +1146,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>103540.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>107220.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>103540</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>107220</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>37</v>
@@ -1119,12 +1160,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>107220.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>108220.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>107220</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>108220</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
@@ -1133,12 +1174,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>108220.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>111700.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>108220</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>111700</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
@@ -1147,12 +1188,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>111700.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>117980.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>111700</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>117980</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>40</v>
@@ -1161,12 +1202,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>111700.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>117980.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>111700</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>117980</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>41</v>
@@ -1175,12 +1216,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>117980.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>122560.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>117980</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>122560</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>43</v>
@@ -1189,12 +1230,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>122560.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>125780.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>122560</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>125780</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>44</v>
@@ -1203,12 +1244,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>122560.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>125780.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>122560</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>125780</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>41</v>
@@ -1217,12 +1258,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>125780.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>129660.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>125780</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>129660</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
@@ -1231,12 +1272,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>129660.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>131220.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>129660</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>131220</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>46</v>
@@ -1245,12 +1286,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>131220.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>132220.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>131220</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>132220</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>47</v>
@@ -1259,12 +1300,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>132220.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>135620.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>132220</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>135620</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>48</v>
@@ -1273,12 +1314,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>135620.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>138120.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>135620</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>138120</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>49</v>
@@ -1287,12 +1328,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>142120.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>145120.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>142120</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>145120</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>50</v>
@@ -1300,16 +1341,16 @@
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>145120.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>146120.0</v>
+      <c r="E42" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>145120</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>146120</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>51</v>
@@ -1318,12 +1359,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>146120.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>149520.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>146120</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>149520</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>52</v>
@@ -1332,12 +1373,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>149520.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>151120.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>149520</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>151120</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>53</v>
@@ -1346,12 +1387,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>151120.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>152820.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>151120</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>152820</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>54</v>
@@ -1366,12 +1407,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>152820.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>154920.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>152820</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>154920</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>57</v>
@@ -1380,12 +1421,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>154920.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>156120.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>154920</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>156120</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>58</v>
@@ -1397,12 +1438,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>156120.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>159320.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>156120</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>159320</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>60</v>
@@ -1411,12 +1452,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>159320.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>161120.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>159320</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>161120</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>54</v>
@@ -1428,12 +1469,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>161120.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>168120.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>161120</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>168120</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>61</v>
@@ -1442,12 +1483,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>168120.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>172120.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>168120</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>172120</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>62</v>
@@ -1456,12 +1497,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>172120.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>175120.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>172120</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>175120</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>63</v>
@@ -1469,16 +1510,16 @@
       <c r="D53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>172120.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>175120.0</v>
+      <c r="E53" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>172120</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>175120</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>64</v>
@@ -1487,12 +1528,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>175120.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>181120.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>175120</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>181120</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>65</v>
@@ -1501,12 +1542,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>181120.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>183120.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>181120</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>183120</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>66</v>
@@ -1515,12 +1556,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>183120.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>186120.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>183120</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>186120</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>67</v>
@@ -1535,12 +1576,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>183120.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>186120.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>183120</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>186120</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>69</v>
@@ -1552,12 +1593,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>186120.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>188120.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>186120</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>188120</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>70</v>
@@ -1566,12 +1607,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>188120.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>189120.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>188120</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>189120</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>67</v>
@@ -1583,12 +1624,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>190120.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>191120.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>190120</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>191120</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>71</v>
@@ -1597,12 +1638,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>191120.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>192120.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>191120</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>192120</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>72</v>
@@ -1614,12 +1655,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>192120.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>193120.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>192120</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>193120</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>73</v>
@@ -1628,12 +1669,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>193120.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>194120.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>193120</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>194120</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>74</v>
@@ -1642,12 +1683,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>194120.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>196120.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>194120</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>196120</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>75</v>
@@ -1656,12 +1697,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>196120.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>199120.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>196120</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>199120</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>76</v>
@@ -1669,16 +1710,16 @@
       <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>199120.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>202120.0</v>
+      <c r="E66" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>199120</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>202120</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>77</v>
@@ -1687,12 +1728,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>202120.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>203120.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>202120</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>203120</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>47</v>
@@ -1701,12 +1742,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>203120.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>206120.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>203120</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>206120</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>78</v>
@@ -1715,12 +1756,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>206120.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>208120.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>206120</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>208120</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>79</v>
@@ -1735,12 +1776,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>208120.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>210120.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>208120</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>210120</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>81</v>
@@ -1749,12 +1790,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>210120.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>212120.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>210120</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>212120</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>82</v>
@@ -1762,13 +1803,16 @@
       <c r="D72" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>212120.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>213120.0</v>
+      <c r="F72" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>212120</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>213120</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>83</v>
@@ -1777,12 +1821,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>213120.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>216120.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>213120</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>216120</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>84</v>
@@ -1790,16 +1834,16 @@
       <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>216120.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>217120.0</v>
+      <c r="E74" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>216120</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>217120</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>85</v>
@@ -1814,12 +1858,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>217120.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>219120.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>217120</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>219120</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>81</v>
@@ -1827,16 +1871,16 @@
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>221120.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>227120.0</v>
+      <c r="E76" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>221120</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>227120</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>87</v>
@@ -1845,12 +1889,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>221120.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>227120.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>221120</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>227120</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>88</v>
@@ -1862,12 +1906,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>227120.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>235120.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>227120</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>235120</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>89</v>
@@ -1876,12 +1920,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>227120.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>235120.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>227120</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>235120</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>90</v>
@@ -1893,12 +1937,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>235120.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>241120.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>235120</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>241120</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>91</v>
@@ -1907,12 +1951,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>241120.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>245120.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>241120</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>245120</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>92</v>
@@ -1927,12 +1971,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>245120.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>246120.0</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>245120</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>246120</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>81</v>
@@ -1940,16 +1984,16 @@
       <c r="D83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>246120.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>248120.0</v>
+      <c r="E83" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>246120</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>248120</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>77</v>
@@ -1958,12 +2002,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>248120.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>250120.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>248120</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>250120</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>93</v>
@@ -1978,12 +2022,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>250120.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>252120.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>250120</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>252120</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>94</v>
@@ -1991,16 +2035,16 @@
       <c r="D86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>263120.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>267120.0</v>
+      <c r="E86" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>263120</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>267120</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>95</v>
@@ -2011,13 +2055,16 @@
       <c r="F87" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>267120.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>270120.0</v>
+      <c r="H87" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>267120</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>270120</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>71</v>
@@ -2026,12 +2073,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>267120.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>270120.0</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>267120</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>270120</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>58</v>
@@ -2043,12 +2090,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>270120.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>273120.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>270120</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>273120</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>96</v>
@@ -2057,12 +2104,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>273120.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>275120.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>273120</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>275120</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>97</v>
@@ -2071,12 +2118,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>275120.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>276120.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>275120</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>276120</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>98</v>
@@ -2087,16 +2134,14 @@
       <c r="F92" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>276120.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>279120.0</v>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>276120</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>279120</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>81</v>
@@ -2104,30 +2149,30 @@
       <c r="D93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>279120.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>283120.0</v>
+      <c r="E93" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>279120</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>283120</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>285120.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>288120.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>285120</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>288120</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>98</v>
@@ -2139,15 +2184,15 @@
         <v>55</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>288120.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>291120.0</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>288120</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>291120</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>94</v>
@@ -2155,16 +2200,16 @@
       <c r="D96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>291120.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>300120.0</v>
+      <c r="E96" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>291120</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>300120</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>101</v>
@@ -2175,13 +2220,16 @@
       <c r="F97" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>300120.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>301120.0</v>
+      <c r="H97" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>300120</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>301120</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>47</v>
@@ -2190,40 +2238,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>301120.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>305120.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>301120</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>305120</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>307120.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>309120.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>307120</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>309120</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>309120.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>310120.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>309120</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>310120</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>93</v>
@@ -2234,19 +2282,17 @@
       <c r="F101" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>310120.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>313120.0</v>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>310120</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>313120</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>42</v>
@@ -2255,43 +2301,43 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>313120.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>317120.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>313120</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>317120</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>317120.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>319120.0</v>
+      <c r="E103" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>317120</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>319120</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>319120.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>320120.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>319120</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>320120</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>47</v>
@@ -2300,57 +2346,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>320120.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>322120.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>320120</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>322120</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>322120.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>325120.0</v>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>322120</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>325120</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>325120.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>327120.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>325120</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>327120</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>327120.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>329120.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>327120</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>329120</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>21</v>
@@ -2362,12 +2408,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>329120.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>332120.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>329120</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>332120</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>94</v>
@@ -2375,44 +2421,44 @@
       <c r="D110" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E110" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>332120.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>334120.0</v>
+      <c r="E110" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>332120</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>334120</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>334120.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>338120.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>334120</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>338120</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>338120.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>340120.0</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>338120</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>340120</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>98</v>
@@ -2424,15 +2470,15 @@
         <v>55</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>340120.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>341120.0</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>340120</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>341120</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>47</v>
@@ -2441,46 +2487,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>341120.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>345120.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>341120</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>345120</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>345120.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>347120.0</v>
+      <c r="E115" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>345120</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>347120</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>347120.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>349120.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>347120</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>349120</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>21</v>
@@ -2489,15 +2535,15 @@
         <v>55</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>349120.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>352120.0</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>349120</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>352120</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>94</v>
@@ -2505,30 +2551,30 @@
       <c r="D118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>352120.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>361120.0</v>
+      <c r="E118" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>352120</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>361120</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>361120.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>362120.0</v>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>361120</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>362120</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>93</v>
@@ -2543,12 +2589,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>364120.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>365120.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>364120</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>365120</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>94</v>
@@ -2556,16 +2602,16 @@
       <c r="D121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E121" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>365120.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>366120.0</v>
+      <c r="E121" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>365120</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>366120</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>98</v>
@@ -2577,63 +2623,63 @@
         <v>55</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>366120.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>367120.0</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>366120</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>367120</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>367120.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>384120.0</v>
+      <c r="E123" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>367120</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>384120</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>384120.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>387120.0</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>384120</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>387120</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>387120.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>390120.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>387120</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>390120</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>42</v>
@@ -2642,15 +2688,15 @@
         <v>55</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2">
-        <v>390120.0</v>
-      </c>
-      <c r="B127" s="2">
-        <v>397120.0</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="n">
+        <v>390120</v>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>397120</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>71</v>
@@ -2659,15 +2705,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>390120.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>397120.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>390120</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>397120</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>21</v>
@@ -2676,29 +2722,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="3">
-        <v>390120.0</v>
-      </c>
-      <c r="B129" s="3">
-        <v>397120.0</v>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="n">
+        <v>390120</v>
+      </c>
+      <c r="B129" s="3" t="n">
+        <v>397120</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="3">
-        <v>390120.0</v>
-      </c>
-      <c r="B130" s="3">
-        <v>397120.0</v>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="n">
+        <v>390120</v>
+      </c>
+      <c r="B130" s="3" t="n">
+        <v>397120</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>42</v>
@@ -2707,43 +2753,43 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>397120.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>401120.0</v>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>397120</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>401120</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>401120.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>405120.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>401120</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>405120</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E132" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>405120.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>407120.0</v>
+      <c r="E132" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>405120</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>407120</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>47</v>
@@ -2752,12 +2798,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>407120.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>409120.0</v>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>407120</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>409120</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>98</v>
@@ -2769,15 +2815,15 @@
         <v>55</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>409120.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>413120.0</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>409120</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>413120</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>94</v>
@@ -2785,19 +2831,19 @@
       <c r="D135" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E135" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>413120.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>420120.0</v>
+      <c r="E135" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>413120</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>420120</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>42</v>
@@ -2806,15 +2852,15 @@
         <v>55</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>420120.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>423120.0</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>420120</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>423120</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>94</v>
@@ -2822,16 +2868,16 @@
       <c r="D137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>423120.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>424120.0</v>
+      <c r="E137" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>423120</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>424120</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>98</v>
@@ -2843,46 +2889,46 @@
         <v>55</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>424120.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>438120.0</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>424120</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>438120</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>438120.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>442120.0</v>
+      <c r="E139" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>438120</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>442120</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>442120.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>442620.0</v>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>442120</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>442620</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>93</v>
@@ -2897,12 +2943,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>446620.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>447680.0</v>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>446620</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>447680</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>94</v>
@@ -2910,16 +2956,16 @@
       <c r="D142" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E142" s="1">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>451060.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>451700.0</v>
+      <c r="E142" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>451060</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>451700</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>98</v>
@@ -2931,15 +2977,15 @@
         <v>55</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>454700.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>456300.0</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>454700</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>456300</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>94</v>
@@ -2948,133 +2994,139 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>459160.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>461380.0</v>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>459160</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>461380</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>461580.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>462760.0</v>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>461580</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>462760</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>463060.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>464440.0</v>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>463060</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>464440</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>465880.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>466300.0</v>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>465880</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>466300</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>467800.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>469180.0</v>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>467800</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>469180</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>469280.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>470720.0</v>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>469280</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>470720</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>470920.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>471300.0</v>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>470920</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>471300</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>471400.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>472100.0</v>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>471400</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>472100</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>472100.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>476580.0</v>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>472100</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>476580</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/expt_2/raw_transcripts/game78.xlsx
+++ b/data/expt_2/raw_transcripts/game78.xlsx
@@ -519,20 +519,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -728,2395 +732,2395 @@
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F148" activeCellId="0" sqref="F148"/>
+      <selection pane="bottomLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="41.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="51.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="41.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>3000</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>6000</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>11000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>11000</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>16000</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>16000</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>27000</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>27000</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>34000</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>34000</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>37000</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>37000</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>46000</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>46000</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>47000</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>47000</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>49000</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>49000</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>50000</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>50000</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="2" t="n">
         <v>56280</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>56280</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>58680</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>58680</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>64020</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>64020</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="2" t="n">
         <v>68860</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>68860</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>74280</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>74280</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>78560</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>78560</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>81000</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>81000</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>85680</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>85680</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="2" t="n">
         <v>87080</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>87080</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>93240</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>93240</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>94240</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>94240</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>101000</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>101000</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>103540</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>103540</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>107220</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>107220</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>108220</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>108220</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>111700</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>111700</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="2" t="n">
         <v>117980</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>111700</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="2" t="n">
         <v>117980</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>117980</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="2" t="n">
         <v>122560</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>122560</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="2" t="n">
         <v>125780</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>122560</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="2" t="n">
         <v>125780</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>125780</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="2" t="n">
         <v>129660</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>129660</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="2" t="n">
         <v>131220</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>131220</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="2" t="n">
         <v>132220</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>132220</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="2" t="n">
         <v>135620</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>135620</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="2" t="n">
         <v>138120</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>142120</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="2" t="n">
         <v>145120</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="1" t="n">
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>145120</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="2" t="n">
         <v>146120</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>146120</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="2" t="n">
         <v>149520</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>149520</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="2" t="n">
         <v>151120</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>151120</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>152820</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>152820</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="2" t="n">
         <v>154920</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>154920</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="2" t="n">
         <v>156120</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>156120</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="2" t="n">
         <v>159320</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>159320</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="2" t="n">
         <v>161120</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>161120</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="2" t="n">
         <v>168120</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>168120</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="2" t="n">
         <v>172120</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>172120</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="2" t="n">
         <v>175120</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1" t="n">
+      <c r="D53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>172120</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="2" t="n">
         <v>175120</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>175120</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="2" t="n">
         <v>181120</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>181120</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="2" t="n">
         <v>183120</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>183120</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="2" t="n">
         <v>186120</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>183120</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="2" t="n">
         <v>186120</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>186120</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="2" t="n">
         <v>188120</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>188120</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="2" t="n">
         <v>189120</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>190120</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="2" t="n">
         <v>191120</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>191120</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="2" t="n">
         <v>192120</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>192120</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="2" t="n">
         <v>193120</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>193120</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="2" t="n">
         <v>194120</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>194120</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="2" t="n">
         <v>196120</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>196120</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="2" t="n">
         <v>199120</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="1" t="n">
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>199120</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="2" t="n">
         <v>202120</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>202120</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="2" t="n">
         <v>203120</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>203120</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="2" t="n">
         <v>206120</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>206120</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="2" t="n">
         <v>208120</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>208120</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B71" s="2" t="n">
         <v>210120</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>210120</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B72" s="2" t="n">
         <v>212120</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>212120</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B73" s="2" t="n">
         <v>213120</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>213120</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B74" s="2" t="n">
         <v>216120</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="1" t="n">
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>216120</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="2" t="n">
         <v>217120</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>217120</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="2" t="n">
         <v>219120</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="1" t="n">
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>221120</v>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B77" s="2" t="n">
         <v>227120</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>221120</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="2" t="n">
         <v>227120</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>227120</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="2" t="n">
         <v>235120</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>227120</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="2" t="n">
         <v>235120</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>235120</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="2" t="n">
         <v>241120</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>241120</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="2" t="n">
         <v>245120</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>245120</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="2" t="n">
         <v>246120</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="1" t="n">
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>246120</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="2" t="n">
         <v>248120</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>248120</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="2" t="n">
         <v>250120</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>250120</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="2" t="n">
         <v>252120</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="1" t="n">
+      <c r="D86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>263120</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="2" t="n">
         <v>267120</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>267120</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="2" t="n">
         <v>270120</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>267120</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="2" t="n">
         <v>270120</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>270120</v>
       </c>
-      <c r="B90" s="1" t="n">
+      <c r="B90" s="2" t="n">
         <v>273120</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>273120</v>
       </c>
-      <c r="B91" s="1" t="n">
+      <c r="B91" s="2" t="n">
         <v>275120</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>275120</v>
       </c>
-      <c r="B92" s="1" t="n">
+      <c r="B92" s="2" t="n">
         <v>276120</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H92" s="1"/>
+      <c r="H92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>276120</v>
       </c>
-      <c r="B93" s="1" t="n">
+      <c r="B93" s="2" t="n">
         <v>279120</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="1" t="n">
+      <c r="D93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>279120</v>
       </c>
-      <c r="B94" s="1" t="n">
+      <c r="B94" s="2" t="n">
         <v>283120</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>285120</v>
       </c>
-      <c r="B95" s="1" t="n">
+      <c r="B95" s="2" t="n">
         <v>288120</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>288120</v>
       </c>
-      <c r="B96" s="1" t="n">
+      <c r="B96" s="2" t="n">
         <v>291120</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="1" t="n">
+      <c r="D96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>291120</v>
       </c>
-      <c r="B97" s="1" t="n">
+      <c r="B97" s="2" t="n">
         <v>300120</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>300120</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="2" t="n">
         <v>301120</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>301120</v>
       </c>
-      <c r="B99" s="1" t="n">
+      <c r="B99" s="2" t="n">
         <v>305120</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>307120</v>
       </c>
-      <c r="B100" s="1" t="n">
+      <c r="B100" s="2" t="n">
         <v>309120</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>309120</v>
       </c>
-      <c r="B101" s="1" t="n">
+      <c r="B101" s="2" t="n">
         <v>310120</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H101" s="1"/>
+      <c r="H101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>310120</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="2" t="n">
         <v>313120</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>313120</v>
       </c>
-      <c r="B103" s="1" t="n">
+      <c r="B103" s="2" t="n">
         <v>317120</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="1" t="n">
+      <c r="D103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>317120</v>
       </c>
-      <c r="B104" s="1" t="n">
+      <c r="B104" s="2" t="n">
         <v>319120</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>319120</v>
       </c>
-      <c r="B105" s="1" t="n">
+      <c r="B105" s="2" t="n">
         <v>320120</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>320120</v>
       </c>
-      <c r="B106" s="1" t="n">
+      <c r="B106" s="2" t="n">
         <v>322120</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>322120</v>
       </c>
-      <c r="B107" s="1" t="n">
+      <c r="B107" s="2" t="n">
         <v>325120</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>325120</v>
       </c>
-      <c r="B108" s="1" t="n">
+      <c r="B108" s="2" t="n">
         <v>327120</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>327120</v>
       </c>
-      <c r="B109" s="1" t="n">
+      <c r="B109" s="2" t="n">
         <v>329120</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H109" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>329120</v>
       </c>
-      <c r="B110" s="1" t="n">
+      <c r="B110" s="2" t="n">
         <v>332120</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="1" t="n">
+      <c r="D110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>332120</v>
       </c>
-      <c r="B111" s="1" t="n">
+      <c r="B111" s="2" t="n">
         <v>334120</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>334120</v>
       </c>
-      <c r="B112" s="1" t="n">
+      <c r="B112" s="2" t="n">
         <v>338120</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>338120</v>
       </c>
-      <c r="B113" s="1" t="n">
+      <c r="B113" s="2" t="n">
         <v>340120</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
+        <v>340120</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>341120</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
+        <v>341120</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>345120</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
+        <v>345120</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>347120</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
+        <v>347120</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>349120</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F117" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H117" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
+        <v>349120</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>352120</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
+        <v>352120</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>361120</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
+        <v>361120</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>362120</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
+        <v>364120</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>365120</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
+        <v>365120</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>366120</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H122" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
-        <v>340120</v>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>341120</v>
-      </c>
-      <c r="C114" s="1" t="s">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
+        <v>366120</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>367120</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
+        <v>367120</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>384120</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
+        <v>384120</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>387120</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
+        <v>387120</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>390120</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="n">
+        <v>390120</v>
+      </c>
+      <c r="B127" s="4" t="n">
+        <v>397120</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
+        <v>390120</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>397120</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="n">
+        <v>390120</v>
+      </c>
+      <c r="B129" s="4" t="n">
+        <v>397120</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="n">
+        <v>390120</v>
+      </c>
+      <c r="B130" s="4" t="n">
+        <v>397120</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
+        <v>397120</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>401120</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
+        <v>401120</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>405120</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
+        <v>405120</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>407120</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
-        <v>341120</v>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>345120</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
-        <v>345120</v>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>347120</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
-        <v>347120</v>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>349120</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="D133" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
+        <v>407120</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>409120</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F134" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
-        <v>349120</v>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>352120</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="H134" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
+        <v>409120</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>413120</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
-        <v>352120</v>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>361120</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <v>361120</v>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>362120</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="D135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
+        <v>413120</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>420120</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
+        <v>420120</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>423120</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
+        <v>423120</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>424120</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
+        <v>424120</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>438120</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
+        <v>438120</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>442120</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
+        <v>442120</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>442620</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D141" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F141" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H141" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
-        <v>364120</v>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>365120</v>
-      </c>
-      <c r="C121" s="1" t="s">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
+        <v>446620</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>447680</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="1" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
-        <v>365120</v>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>366120</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="D142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
+        <v>451060</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>451700</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D143" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F143" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="H143" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
-        <v>366120</v>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>367120</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
-        <v>367120</v>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>384120</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
-        <v>384120</v>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>387120</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>387120</v>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>390120</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="n">
-        <v>390120</v>
-      </c>
-      <c r="B127" s="3" t="n">
-        <v>397120</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
-        <v>390120</v>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>397120</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="n">
-        <v>390120</v>
-      </c>
-      <c r="B129" s="3" t="n">
-        <v>397120</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="n">
-        <v>390120</v>
-      </c>
-      <c r="B130" s="3" t="n">
-        <v>397120</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
-        <v>397120</v>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>401120</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
-        <v>401120</v>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>405120</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
-        <v>405120</v>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>407120</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
-        <v>407120</v>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>409120</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
-        <v>409120</v>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>413120</v>
-      </c>
-      <c r="C135" s="1" t="s">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
+        <v>454700</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>456300</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="1" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
-        <v>413120</v>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>420120</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
-        <v>420120</v>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>423120</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="1" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
-        <v>423120</v>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>424120</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
-        <v>424120</v>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>438120</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
-        <v>438120</v>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>442120</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <v>442120</v>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>442620</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
-        <v>446620</v>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>447680</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" s="1" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
-        <v>451060</v>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>451700</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
-        <v>454700</v>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>456300</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>459160</v>
       </c>
-      <c r="B145" s="1" t="n">
+      <c r="B145" s="2" t="n">
         <v>461380</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>461580</v>
       </c>
-      <c r="B146" s="1" t="n">
+      <c r="B146" s="2" t="n">
         <v>462760</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>463060</v>
       </c>
-      <c r="B147" s="1" t="n">
+      <c r="B147" s="2" t="n">
         <v>464440</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>465880</v>
       </c>
-      <c r="B148" s="1" t="n">
+      <c r="B148" s="2" t="n">
         <v>466300</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>467800</v>
       </c>
-      <c r="B149" s="1" t="n">
+      <c r="B149" s="2" t="n">
         <v>469180</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>469280</v>
       </c>
-      <c r="B150" s="1" t="n">
+      <c r="B150" s="2" t="n">
         <v>470720</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>470920</v>
       </c>
-      <c r="B151" s="1" t="n">
+      <c r="B151" s="2" t="n">
         <v>471300</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>471400</v>
       </c>
-      <c r="B152" s="1" t="n">
+      <c r="B152" s="2" t="n">
         <v>472100</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>472100</v>
       </c>
-      <c r="B153" s="1" t="n">
+      <c r="B153" s="2" t="n">
         <v>476580</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game78.xlsx
+++ b/data/expt_2/raw_transcripts/game78.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="141">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Alright, now you're on camera.</t>
   </si>
   <si>
@@ -193,6 +196,9 @@
     <t xml:space="preserve">An apple</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Did you hear that, [id143]?</t>
   </si>
   <si>
@@ -325,7 +331,7 @@
     <t xml:space="preserve">Person</t>
   </si>
   <si>
-    <t xml:space="preserve">There's a person another portion.</t>
+    <t xml:space="preserve">There's a person another person.</t>
   </si>
   <si>
     <t xml:space="preserve">a person, another person</t>
@@ -729,12 +735,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D114" activeCellId="0" sqref="D114"/>
+      <selection pane="bottomLeft" activeCell="E109" activeCellId="0" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -771,6 +777,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -780,10 +789,10 @@
         <v>3000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,10 +803,10 @@
         <v>6000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,10 +817,10 @@
         <v>11000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,10 +831,10 @@
         <v>16000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,10 +845,10 @@
         <v>20000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,10 +859,10 @@
         <v>27000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,10 +873,10 @@
         <v>34000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,10 +887,10 @@
         <v>37000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,10 +901,10 @@
         <v>41000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,10 +915,10 @@
         <v>44000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,10 +929,10 @@
         <v>46000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,10 +943,10 @@
         <v>47000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,10 +957,10 @@
         <v>49000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,10 +971,10 @@
         <v>50000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,10 +985,10 @@
         <v>56280</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,10 +999,10 @@
         <v>58680</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,10 +1013,10 @@
         <v>64020</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,10 +1027,10 @@
         <v>68860</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,10 +1041,10 @@
         <v>74280</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,10 +1055,10 @@
         <v>78560</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,10 +1069,10 @@
         <v>81000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,10 +1083,10 @@
         <v>85680</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,10 +1097,10 @@
         <v>87080</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,10 +1111,10 @@
         <v>93240</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,10 +1125,10 @@
         <v>94240</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,10 +1139,10 @@
         <v>101000</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,10 +1153,10 @@
         <v>103540</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,10 +1167,10 @@
         <v>107220</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,10 +1181,10 @@
         <v>108220</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,10 +1195,10 @@
         <v>111700</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,10 +1209,10 @@
         <v>117980</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,10 +1223,10 @@
         <v>117980</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,10 +1237,10 @@
         <v>122560</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,10 +1251,10 @@
         <v>125780</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,10 +1265,10 @@
         <v>125780</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,10 +1279,10 @@
         <v>129660</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,10 +1293,10 @@
         <v>131220</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,10 +1307,10 @@
         <v>132220</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,10 +1321,10 @@
         <v>135620</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,10 +1335,10 @@
         <v>138120</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,10 +1349,10 @@
         <v>145120</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>0</v>
@@ -1357,10 +1366,10 @@
         <v>146120</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,10 +1380,10 @@
         <v>149520</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,10 +1394,10 @@
         <v>151120</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,16 +1408,19 @@
         <v>152820</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,10 +1431,10 @@
         <v>154920</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,13 +1445,16 @@
         <v>156120</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,10 +1465,10 @@
         <v>159320</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,13 +1479,16 @@
         <v>161120</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,10 +1499,10 @@
         <v>168120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,10 +1513,10 @@
         <v>172120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,10 +1527,10 @@
         <v>175120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>1</v>
@@ -1526,10 +1544,13 @@
         <v>175120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,10 +1561,10 @@
         <v>181120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,10 +1575,10 @@
         <v>183120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,16 +1589,19 @@
         <v>186120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,13 +1612,16 @@
         <v>186120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,10 +1632,10 @@
         <v>188120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,13 +1646,16 @@
         <v>189120</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,10 +1666,10 @@
         <v>191120</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,13 +1680,16 @@
         <v>192120</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,10 +1700,10 @@
         <v>193120</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,10 +1714,10 @@
         <v>194120</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,10 +1728,10 @@
         <v>196120</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,10 +1742,10 @@
         <v>199120</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>2</v>
@@ -1726,10 +1759,10 @@
         <v>202120</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,10 +1773,10 @@
         <v>203120</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,10 +1787,10 @@
         <v>206120</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,16 +1801,19 @@
         <v>208120</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,10 +1824,10 @@
         <v>210120</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,13 +1838,16 @@
         <v>212120</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,10 +1858,10 @@
         <v>213120</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,10 +1872,10 @@
         <v>216120</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>3</v>
@@ -1850,16 +1889,19 @@
         <v>217120</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,10 +1912,10 @@
         <v>219120</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>4</v>
@@ -1887,10 +1929,10 @@
         <v>227120</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,13 +1943,16 @@
         <v>227120</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,10 +1963,10 @@
         <v>235120</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,13 +1977,16 @@
         <v>235120</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,10 +1997,10 @@
         <v>241120</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,16 +2011,19 @@
         <v>245120</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,10 +2034,10 @@
         <v>246120</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>5</v>
@@ -2000,10 +2051,10 @@
         <v>248120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,16 +2065,19 @@
         <v>250120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,10 +2088,10 @@
         <v>252120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>6</v>
@@ -2051,16 +2105,19 @@
         <v>267120</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>93</v>
+      <c r="I87" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,10 +2128,10 @@
         <v>270120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,13 +2142,13 @@
         <v>270120</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,10 +2159,10 @@
         <v>273120</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,10 +2173,10 @@
         <v>275120</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,15 +2187,18 @@
         <v>276120</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H92" s="2"/>
+      <c r="I92" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
@@ -2148,10 +2208,10 @@
         <v>279120</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>7</v>
@@ -2165,10 +2225,10 @@
         <v>283120</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,16 +2239,19 @@
         <v>288120</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,10 +2262,10 @@
         <v>291120</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>8</v>
@@ -2216,16 +2279,19 @@
         <v>300120</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,10 +2302,10 @@
         <v>301120</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,10 +2316,10 @@
         <v>305120</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,10 +2330,10 @@
         <v>309120</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,15 +2344,18 @@
         <v>310120</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H101" s="2"/>
+      <c r="I101" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
@@ -2296,13 +2365,16 @@
         <v>313120</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,10 +2385,10 @@
         <v>317120</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>9</v>
@@ -2330,10 +2402,10 @@
         <v>319120</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,10 +2416,10 @@
         <v>320120</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,10 +2430,10 @@
         <v>322120</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,10 +2444,10 @@
         <v>325120</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,10 +2458,16 @@
         <v>327120</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,16 +2478,19 @@
         <v>329120</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,10 +2501,10 @@
         <v>332120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>10</v>
@@ -2437,10 +2518,10 @@
         <v>334120</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,10 +2532,10 @@
         <v>338120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,16 +2546,19 @@
         <v>340120</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,10 +2569,10 @@
         <v>341120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,10 +2583,10 @@
         <v>345120</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>11</v>
@@ -2516,10 +2600,10 @@
         <v>347120</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,16 +2614,19 @@
         <v>349120</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,10 +2637,10 @@
         <v>352120</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>12</v>
@@ -2567,10 +2654,10 @@
         <v>361120</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,16 +2668,19 @@
         <v>362120</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,10 +2691,10 @@
         <v>365120</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>13</v>
@@ -2618,16 +2708,19 @@
         <v>366120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,10 +2731,10 @@
         <v>367120</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>14</v>
@@ -2655,10 +2748,10 @@
         <v>384120</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,10 +2762,10 @@
         <v>387120</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,16 +2776,19 @@
         <v>390120</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,10 +2799,10 @@
         <v>397120</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,13 +2813,13 @@
         <v>397120</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,10 +2830,10 @@
         <v>397120</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,13 +2844,16 @@
         <v>397120</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,10 +2864,10 @@
         <v>401120</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,10 +2878,10 @@
         <v>405120</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" s="2" t="n">
         <v>15</v>
@@ -2796,10 +2895,10 @@
         <v>407120</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,16 +2909,19 @@
         <v>409120</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,10 +2932,10 @@
         <v>413120</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>16</v>
@@ -2847,16 +2949,19 @@
         <v>420120</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,10 +2972,10 @@
         <v>423120</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" s="2" t="n">
         <v>17</v>
@@ -2884,16 +2989,19 @@
         <v>424120</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,10 +3012,10 @@
         <v>438120</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>18</v>
@@ -2921,10 +3029,10 @@
         <v>442120</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,16 +3043,19 @@
         <v>442620</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,10 +3066,10 @@
         <v>447680</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" s="2" t="n">
         <v>19</v>
@@ -2972,16 +3083,19 @@
         <v>451700</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2992,10 +3106,10 @@
         <v>456300</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,10 +3120,10 @@
         <v>461380</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,10 +3134,10 @@
         <v>462760</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,10 +3148,10 @@
         <v>464440</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,10 +3162,10 @@
         <v>466300</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,10 +3176,10 @@
         <v>469180</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,10 +3190,10 @@
         <v>470720</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3090,10 +3204,10 @@
         <v>471300</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,10 +3218,10 @@
         <v>472100</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,10 +3232,10 @@
         <v>476580</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/expt_2/raw_transcripts/game78.xlsx
+++ b/data/expt_2/raw_transcripts/game78.xlsx
@@ -409,7 +409,7 @@
     <t xml:space="preserve">I see a airplane.</t>
   </si>
   <si>
-    <t xml:space="preserve">An airplane</t>
+    <t xml:space="preserve">A airplane</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, it's okay, it's okay. You can try again.</t>
@@ -738,9 +738,9 @@
   <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E109" activeCellId="0" sqref="E109"/>
+      <selection pane="bottomLeft" activeCell="H136" activeCellId="0" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
